--- a/TPNelem.xlsx
+++ b/TPNelem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKIE01-2022\Python_script\栄養療法計算機\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKIE01-2022\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB3AC90-C967-4DEA-BB60-6D0464F57280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806F4CEF-99A1-4A15-949B-C13DEC899F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="750" windowWidth="21555" windowHeight="14850" activeTab="2" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
+    <workbookView xWindow="31230" yWindow="960" windowWidth="23490" windowHeight="13035" activeTab="2" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="elem" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">elem!$A$1:$L$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">elem!$A$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="104">
   <si>
     <t>K（mEq）</t>
     <phoneticPr fontId="1"/>
@@ -1035,6 +1035,14 @@
   </si>
   <si>
     <t>補液｜ソリタ-T4号輸液</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キドパレン輸液</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合｜キドパレン輸液</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1537,10 +1545,10 @@
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4077,26 +4085,68 @@
       <c r="T44" s="10"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
+      <c r="A45" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="10">
+        <v>1050</v>
+      </c>
+      <c r="C45" s="10">
+        <v>342.2</v>
+      </c>
+      <c r="D45" s="10">
+        <v>32.847000000000001</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1500</v>
+      </c>
+      <c r="H45" s="10">
+        <v>1369</v>
+      </c>
+      <c r="I45" s="10">
+        <v>50</v>
+      </c>
+      <c r="J45" s="10">
+        <v>0</v>
+      </c>
+      <c r="K45" s="10">
+        <v>6</v>
+      </c>
+      <c r="L45" s="10">
+        <v>6</v>
+      </c>
+      <c r="M45" s="10">
+        <v>1</v>
+      </c>
       <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
+      <c r="O45" s="10">
+        <v>300</v>
+      </c>
+      <c r="P45" s="10">
+        <f>C45*4</f>
+        <v>1368.8</v>
+      </c>
+      <c r="Q45" s="10">
+        <f>D45*4</f>
+        <v>131.38800000000001</v>
+      </c>
+      <c r="R45" s="10">
+        <v>0</v>
+      </c>
+      <c r="S45" s="10">
+        <f>SUM(P45:R45)</f>
+        <v>1500.1879999999999</v>
+      </c>
+      <c r="T45" s="10">
+        <f>H45/F45</f>
+        <v>300.21929824561408</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -4110,13 +4160,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC7C856-4D92-4C40-A383-D2F62D797670}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5730,6 +5780,44 @@
         <v>1.3168724279835391E-2</v>
       </c>
     </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0.32590476190476192</v>
+      </c>
+      <c r="D45">
+        <v>3.1282857142857147E-2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>4.3428571428571422E-3</v>
+      </c>
+      <c r="G45">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="H45">
+        <v>1.3038095238095238</v>
+      </c>
+      <c r="I45">
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>5.7142857142857143E-3</v>
+      </c>
+      <c r="L45">
+        <v>5.7142857142857143E-3</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1"/>
@@ -5740,13 +5828,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB05657-7C92-4504-9151-023EF147012E}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5882,53 +5970,53 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.68571428571428572</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.68571428571428572</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="K4" s="8">
-        <v>1.2142857142857143E-2</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1.4285714285714285E-2</v>
+      <c r="A4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.32590476190476192</v>
+      </c>
+      <c r="D4">
+        <v>3.1282857142857147E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>4.3428571428571422E-3</v>
+      </c>
+      <c r="G4">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="H4">
+        <v>1.3038095238095238</v>
+      </c>
+      <c r="I4">
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>5.7142857142857143E-3</v>
+      </c>
+      <c r="L4">
+        <v>5.7142857142857143E-3</v>
       </c>
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <v>0.25</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -5940,10 +6028,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="8">
-        <v>1</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="H5" s="8">
-        <v>1</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="I5" s="8">
         <v>0</v>
@@ -5961,13 +6049,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="8">
-        <v>0.35714285714285715</v>
+        <v>0.25</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -5979,10 +6067,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <v>1.4285714285714286</v>
+        <v>1</v>
       </c>
       <c r="H6" s="8">
-        <v>1.4285714285714286</v>
+        <v>1</v>
       </c>
       <c r="I6" s="8">
         <v>0</v>
@@ -6000,85 +6088,85 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="8">
-        <v>7.4999999999999997E-2</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="D7" s="8">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
       </c>
       <c r="F7" s="8">
-        <v>4.7000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
-        <v>0.42</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="H7" s="8">
-        <v>0.3</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="I7" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="8">
-        <v>0.02</v>
+        <v>4.2857142857142858E-2</v>
       </c>
       <c r="K7" s="8">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2142857142857143E-2</v>
       </c>
       <c r="L7" s="8">
-        <v>5.0000000000000001E-3</v>
+        <v>1.4285714285714285E-2</v>
       </c>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="8">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D8" s="8">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="E8" s="8">
         <v>0</v>
       </c>
       <c r="F8" s="8">
-        <v>1.5650000000000001E-2</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="G8" s="8">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="H8" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I8" s="8">
-        <v>2E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J8" s="8">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K8" s="8">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L8" s="8">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -6087,16 +6175,16 @@
         <v>0</v>
       </c>
       <c r="D9" s="8">
-        <v>7.2050000000000003E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="8">
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <v>0.01</v>
+        <v>1.5650000000000001E-2</v>
       </c>
       <c r="G9" s="8">
-        <v>0.28820000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -6117,7 +6205,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -6126,22 +6214,22 @@
         <v>0</v>
       </c>
       <c r="D10" s="8">
-        <v>7.5999999999999998E-2</v>
+        <v>7.2050000000000003E-2</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
       </c>
       <c r="F10" s="8">
-        <v>1.175E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G10" s="8">
-        <v>0.30399999999999999</v>
+        <v>0.28820000000000001</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J10" s="8">
         <v>0</v>
@@ -6156,7 +6244,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -6165,22 +6253,22 @@
         <v>0</v>
       </c>
       <c r="D11" s="8">
-        <v>7.9899999999999999E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E11" s="8">
         <v>0</v>
       </c>
       <c r="F11" s="8">
-        <v>1.2199999999999999E-2</v>
+        <v>1.175E-2</v>
       </c>
       <c r="G11" s="8">
-        <v>0.3196</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <v>1.4999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J11" s="8">
         <v>0</v>
@@ -6195,31 +6283,31 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
       </c>
       <c r="C12" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="8">
-        <v>0</v>
+        <v>7.9899999999999999E-2</v>
       </c>
       <c r="E12" s="8">
         <v>0</v>
       </c>
       <c r="F12" s="8">
-        <v>0</v>
+        <v>1.2199999999999999E-2</v>
       </c>
       <c r="G12" s="8">
-        <v>0.4</v>
+        <v>0.3196</v>
       </c>
       <c r="H12" s="8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I12" s="8">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J12" s="8">
         <v>0</v>
@@ -6234,13 +6322,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="8">
         <v>1</v>
       </c>
       <c r="C13" s="8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -6252,10 +6340,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="8">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H13" s="8">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I13" s="8">
         <v>0</v>
@@ -6273,13 +6361,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
       </c>
       <c r="C14" s="8">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -6291,10 +6379,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="8">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H14" s="8">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I14" s="8">
         <v>0</v>
@@ -6312,13 +6400,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B15" s="8">
         <v>1</v>
       </c>
       <c r="C15" s="8">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -6330,10 +6418,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="8">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="H15" s="8">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I15" s="8">
         <v>0</v>
@@ -6351,13 +6439,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
       </c>
       <c r="C16" s="8">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -6369,10 +6457,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="8">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H16" s="8">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="I16" s="8">
         <v>0</v>
@@ -6390,28 +6478,28 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="8" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
       </c>
       <c r="C17" s="8">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="E17" s="8">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F17" s="8">
         <v>0</v>
       </c>
       <c r="G17" s="8">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H17" s="8">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I17" s="8">
         <v>0</v>
@@ -6429,7 +6517,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
@@ -6441,19 +6529,19 @@
         <v>0</v>
       </c>
       <c r="E18" s="8">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="F18" s="8">
         <v>0</v>
       </c>
       <c r="G18" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="8">
         <v>0</v>
       </c>
       <c r="I18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="8">
         <v>0</v>
@@ -6468,7 +6556,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -6492,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="J19" s="8">
         <v>0</v>
@@ -6507,7 +6595,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="8" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
@@ -6531,10 +6619,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="8">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="J20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="8">
         <v>0</v>
@@ -6546,7 +6634,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="8">
         <v>1</v>
@@ -6585,7 +6673,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B22" s="8">
         <v>1</v>
@@ -6612,10 +6700,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="8">
         <v>0</v>
@@ -6624,7 +6712,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -6654,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="8">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="L23" s="8">
         <v>0</v>
@@ -6663,7 +6751,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
@@ -6693,16 +6781,16 @@
         <v>0</v>
       </c>
       <c r="K24" s="8">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="L24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
@@ -6726,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J25" s="8">
         <v>0</v>
@@ -6735,13 +6823,13 @@
         <v>0</v>
       </c>
       <c r="L25" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="8" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B26" s="8">
         <v>1</v>
@@ -6765,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="8">
-        <v>0.154</v>
+        <v>0.75</v>
       </c>
       <c r="J26" s="8">
         <v>0</v>
@@ -6780,7 +6868,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="8" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B27" s="8">
         <v>1</v>
@@ -6804,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="J27" s="8">
         <v>0</v>
@@ -6819,13 +6907,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="8" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B28" s="8">
         <v>1</v>
       </c>
       <c r="C28" s="8">
-        <v>2.6000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="8">
         <v>0</v>
@@ -6837,13 +6925,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="8">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="H28" s="8">
-        <v>0.10400000000000001</v>
+        <v>0</v>
       </c>
       <c r="I28" s="8">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="J28" s="8">
         <v>0</v>
@@ -6858,13 +6946,13 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
       </c>
       <c r="C29" s="8">
-        <v>7.4999999999999997E-2</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="D29" s="8">
         <v>0</v>
@@ -6876,16 +6964,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="8">
-        <v>0.3</v>
+        <v>0.105</v>
       </c>
       <c r="H29" s="8">
-        <v>0.3</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="I29" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>0.09</v>
       </c>
       <c r="J29" s="8">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K29" s="8">
         <v>0</v>
@@ -6897,13 +6985,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="8">
         <v>1</v>
       </c>
       <c r="C30" s="8">
-        <v>4.2999999999999997E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
@@ -6915,10 +7003,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="8">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="H30" s="8">
-        <v>0.17199999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="I30" s="8">
         <v>3.5000000000000003E-2</v>
@@ -6936,7 +7024,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="8">
         <v>1</v>
@@ -6960,10 +7048,10 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="I31" s="8">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J31" s="8">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K31" s="8">
         <v>0</v>
@@ -6975,241 +7063,241 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="8" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
       </c>
       <c r="C32" s="8">
-        <v>0.1575</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D32" s="8">
-        <v>6.7500000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="E32" s="8">
-        <v>1.8500000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="F32" s="8">
-        <v>1.0800000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G32" s="8">
-        <v>1.0649999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="H32" s="8">
-        <v>0.7965000000000001</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="I32" s="8">
-        <v>8.5000000000000006E-3</v>
+        <v>0.03</v>
       </c>
       <c r="J32" s="8">
-        <v>2.7099999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="8">
-        <v>1.455E-2</v>
+        <v>0</v>
       </c>
       <c r="L32" s="8">
-        <v>8.3000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B33" s="8">
         <v>1</v>
       </c>
       <c r="C33" s="8">
-        <v>0.21224000000000001</v>
+        <v>0.1575</v>
       </c>
       <c r="D33" s="8">
-        <v>6.4000000000000001E-2</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="E33" s="8">
-        <v>5.1520000000000003E-2</v>
+        <v>1.8500000000000003E-2</v>
       </c>
       <c r="F33" s="8">
-        <v>0.01</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="G33" s="8">
-        <v>1.6</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="H33" s="8">
-        <v>1.31264</v>
+        <v>0.7965000000000001</v>
       </c>
       <c r="I33" s="8">
-        <v>6.2399999999999997E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="J33" s="8">
-        <v>7.5200000000000003E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="K33" s="8">
-        <v>7.1199999999999999E-2</v>
+        <v>1.455E-2</v>
       </c>
       <c r="L33" s="8">
-        <v>5.4399999999999997E-2</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B34" s="8">
         <v>1</v>
       </c>
       <c r="C34" s="8">
-        <v>0.15840000000000001</v>
+        <v>0.21224000000000001</v>
       </c>
       <c r="D34" s="8">
-        <v>5.3999999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E34" s="8">
-        <v>3.8399999999999997E-2</v>
+        <v>5.1520000000000003E-2</v>
       </c>
       <c r="F34" s="8">
-        <v>8.4399999999999996E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G34" s="8">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H34" s="8">
-        <v>0.97920000000000007</v>
+        <v>1.31264</v>
       </c>
       <c r="I34" s="8">
-        <v>0.04</v>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="J34" s="8">
-        <v>3.0800000000000001E-2</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="K34" s="8">
-        <v>5.8000000000000003E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="L34" s="8">
-        <v>1.72E-2</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
       </c>
       <c r="C35" s="8">
-        <v>0.21133333333333332</v>
+        <v>0.15840000000000001</v>
       </c>
       <c r="D35" s="8">
-        <v>4.7E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E35" s="8">
-        <v>1.7000000000000001E-3</v>
+        <v>3.8399999999999997E-2</v>
       </c>
       <c r="F35" s="8">
-        <v>6.6666666666666671E-3</v>
+        <v>8.4399999999999996E-3</v>
       </c>
       <c r="G35" s="8">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H35" s="8">
-        <v>0.86033333333333339</v>
+        <v>0.97920000000000007</v>
       </c>
       <c r="I35" s="8">
-        <v>3.7666666666666668E-2</v>
+        <v>0.04</v>
       </c>
       <c r="J35" s="8">
-        <v>1.8499999999999999E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="K35" s="8">
-        <v>4.306666666666667E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="L35" s="8">
-        <v>1.0966666666666666E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B36" s="8">
         <v>1</v>
       </c>
       <c r="C36" s="8">
-        <v>0.20599999999999999</v>
+        <v>0.21133333333333332</v>
       </c>
       <c r="D36" s="8">
-        <v>5.28E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E36" s="8">
-        <v>5.28E-2</v>
+        <v>1.7000000000000001E-3</v>
       </c>
       <c r="F36" s="8">
-        <v>8.2799999999999992E-3</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="G36" s="8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H36" s="8">
-        <v>1.2992000000000001</v>
+        <v>0.86033333333333339</v>
       </c>
       <c r="I36" s="8">
-        <v>5.1999999999999998E-2</v>
+        <v>3.7666666666666668E-2</v>
       </c>
       <c r="J36" s="8">
-        <v>5.7200000000000001E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="K36" s="8">
-        <v>0.04</v>
+        <v>4.306666666666667E-2</v>
       </c>
       <c r="L36" s="8">
-        <v>2.4799999999999999E-2</v>
+        <v>1.0966666666666666E-2</v>
       </c>
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="8">
         <v>1</v>
       </c>
       <c r="C37" s="8">
-        <v>0.15620000000000001</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D37" s="8">
-        <v>4.3799999999999999E-2</v>
+        <v>5.28E-2</v>
       </c>
       <c r="E37" s="8">
-        <v>2.23E-2</v>
+        <v>5.28E-2</v>
       </c>
       <c r="F37" s="8">
-        <v>6.8999999999999999E-3</v>
+        <v>8.2799999999999992E-3</v>
       </c>
       <c r="G37" s="8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H37" s="8">
-        <v>0.82550000000000001</v>
+        <v>1.2992000000000001</v>
       </c>
       <c r="I37" s="8">
-        <v>3.2000000000000001E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="J37" s="8">
-        <v>3.5000000000000003E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="K37" s="8">
-        <v>2.2000000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="L37" s="8">
-        <v>1.6E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="8">
         <v>1</v>
@@ -7239,7 +7327,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K38" s="8">
-        <v>2.1999999999999999E-2</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="L38" s="8">
         <v>1.6E-2</v>
@@ -7247,123 +7335,161 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0.1875</v>
-      </c>
-      <c r="D39">
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="E39">
-        <v>0.06</v>
-      </c>
-      <c r="F39">
-        <v>8.6E-3</v>
-      </c>
-      <c r="G39">
-        <v>1.5</v>
-      </c>
-      <c r="H39">
-        <v>1.29</v>
-      </c>
-      <c r="I39">
-        <v>9.3260869565217383E-2</v>
-      </c>
-      <c r="J39">
-        <v>4.0920716112531973E-2</v>
-      </c>
-      <c r="K39">
-        <v>5.2369077306733167E-2</v>
-      </c>
-      <c r="L39">
-        <v>3.9506172839506172E-2</v>
+      <c r="A39" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="D39" s="8">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="E39" s="8">
+        <v>2.23E-2</v>
+      </c>
+      <c r="F39" s="8">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="G39" s="8">
+        <v>1</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0.82550000000000001</v>
+      </c>
+      <c r="I39" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J39" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K39" s="8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L39" s="8">
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>0.13200000000000001</v>
+        <v>0.1875</v>
       </c>
       <c r="D40">
-        <v>9.5000000000000001E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="E40">
-        <v>6.6000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F40">
-        <v>1.5162162162162162E-2</v>
+        <v>8.6E-3</v>
       </c>
       <c r="G40">
         <v>1.5</v>
       </c>
       <c r="H40">
-        <v>1.1220000000000001</v>
+        <v>1.29</v>
       </c>
       <c r="I40">
-        <v>0.11434782608695652</v>
+        <v>9.3260869565217383E-2</v>
       </c>
       <c r="J40">
-        <v>5.9335038363171354E-2</v>
+        <v>4.0920716112531973E-2</v>
       </c>
       <c r="K40">
-        <v>5.0374064837905241E-2</v>
+        <v>5.2369077306733167E-2</v>
       </c>
       <c r="L40">
-        <v>2.6337448559670781E-2</v>
+        <v>3.9506172839506172E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>0.153</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="D41">
-        <v>5.7000000000000002E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E41">
-        <v>6.9000000000000006E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F41">
-        <v>8.8071428571428571E-3</v>
+        <v>1.5162162162162162E-2</v>
       </c>
       <c r="G41">
         <v>1.5</v>
       </c>
       <c r="H41">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="I41">
+        <v>0.11434782608695652</v>
+      </c>
+      <c r="J41">
+        <v>5.9335038363171354E-2</v>
+      </c>
+      <c r="K41">
+        <v>5.0374064837905241E-2</v>
+      </c>
+      <c r="L41">
+        <v>2.6337448559670781E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0.153</v>
+      </c>
+      <c r="D42">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E42">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F42">
+        <v>8.8071428571428571E-3</v>
+      </c>
+      <c r="G42">
+        <v>1.5</v>
+      </c>
+      <c r="H42">
         <v>1.2329999999999999</v>
       </c>
-      <c r="I41">
+      <c r="I42">
         <v>1.9565217391304349E-2</v>
       </c>
-      <c r="J41">
+      <c r="J42">
         <v>1.0230179028132993E-2</v>
       </c>
-      <c r="K41">
+      <c r="K42">
         <v>1.8703241895261843E-2</v>
       </c>
-      <c r="L41">
+      <c r="L42">
         <v>1.3168724279835391E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L38" xr:uid="{9EB05657-7C92-4504-9151-023EF147012E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L38">
-      <sortCondition ref="A2:A38" customList="総合,蛋白,糖質,電解,補液,経口"/>
+  <autoFilter ref="A1:L39" xr:uid="{9EB05657-7C92-4504-9151-023EF147012E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L39">
+      <sortCondition ref="A2:A39" customList="総合,蛋白,糖質,電解,補液,経口"/>
     </sortState>
   </autoFilter>
   <dataConsolidate/>

--- a/TPNelem.xlsx
+++ b/TPNelem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKIE01-2022\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKIE01-2022\Python_script\DIサイト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806F4CEF-99A1-4A15-949B-C13DEC899F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19DC2BF-91E4-4210-859D-332FCA6BFFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31230" yWindow="960" windowWidth="23490" windowHeight="13035" activeTab="2" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
+    <workbookView xWindow="31470" yWindow="-30" windowWidth="22050" windowHeight="14760" activeTab="2" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="elem" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">elem!$A$1:$L$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">elem!$A$1:$L$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
   <si>
     <t>K（mEq）</t>
     <phoneticPr fontId="1"/>
@@ -1043,6 +1043,17 @@
   </si>
   <si>
     <t>総合｜キドパレン輸液</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イノソリッド配合経腸用半固形剤</t>
+  </si>
+  <si>
+    <t>イノソリッド配合経腸用半固形剤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経口｜イノソリッド配合経腸用半固形剤</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1200,16 +1211,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>124644</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>67220</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19869</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1232,7 +1243,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12211050" y="11639550"/>
+          <a:off x="8677275" y="10020300"/>
           <a:ext cx="5868219" cy="3905795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1545,10 +1556,10 @@
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1744,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:S35" si="4">SUM(P3:R3)</f>
+        <f t="shared" ref="S3:S39" si="4">SUM(P3:R3)</f>
         <v>1230</v>
       </c>
       <c r="T3" s="2">
@@ -2167,15 +2178,15 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <f t="shared" ref="P10:P35" si="6">C10*4</f>
+        <f t="shared" ref="P10:P39" si="6">C10*4</f>
         <v>20.8</v>
       </c>
       <c r="Q10">
-        <f t="shared" ref="Q10:Q35" si="7">D10*4</f>
+        <f t="shared" ref="Q10:Q39" si="7">D10*4</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f t="shared" ref="R10:R35" si="8">E10*9</f>
+        <f t="shared" ref="R10:R39" si="8">E10*9</f>
         <v>0</v>
       </c>
       <c r="S10" s="2">
@@ -3597,7 +3608,7 @@
         <v>300.20999999999998</v>
       </c>
       <c r="T33">
-        <f t="shared" si="9"/>
+        <f>P33+R33</f>
         <v>247.65</v>
       </c>
     </row>
@@ -3641,7 +3652,8 @@
       <c r="M34" s="2">
         <v>0</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="6">
+        <f t="shared" ref="O34:O39" si="13">H34/F34</f>
         <v>73.75</v>
       </c>
       <c r="P34">
@@ -3656,12 +3668,12 @@
         <f t="shared" si="8"/>
         <v>33.300000000000004</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34">
         <f t="shared" si="4"/>
         <v>213.3</v>
       </c>
-      <c r="T34" s="2">
-        <f t="shared" si="9"/>
+      <c r="T34">
+        <f t="shared" ref="T34:T39" si="14">P34+R34</f>
         <v>159.30000000000001</v>
       </c>
     </row>
@@ -3705,7 +3717,8 @@
       <c r="M35" s="2">
         <v>0</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="6">
+        <f t="shared" si="13"/>
         <v>129.05000000000001</v>
       </c>
       <c r="P35">
@@ -3720,12 +3733,12 @@
         <f t="shared" si="8"/>
         <v>4.59</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35">
         <f t="shared" si="4"/>
         <v>314.58999999999997</v>
       </c>
-      <c r="T35" s="2">
-        <f t="shared" si="9"/>
+      <c r="T35">
+        <f t="shared" si="14"/>
         <v>258.19</v>
       </c>
     </row>
@@ -3769,6 +3782,30 @@
       <c r="M36" s="2">
         <v>1</v>
       </c>
+      <c r="O36" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="2" t="s">
@@ -3810,6 +3847,30 @@
       <c r="M37" s="2">
         <v>1</v>
       </c>
+      <c r="O37" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="2" t="s">
@@ -3851,6 +3912,95 @@
       <c r="M38" s="2">
         <v>1</v>
       </c>
+      <c r="O38" s="6" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="2">
+        <v>300</v>
+      </c>
+      <c r="C39" s="2">
+        <v>41.25</v>
+      </c>
+      <c r="D39" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="E39" s="2">
+        <v>8.34</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="G39" s="2">
+        <v>300</v>
+      </c>
+      <c r="H39" s="2">
+        <v>240.06</v>
+      </c>
+      <c r="I39" s="2">
+        <v>17.086956521739129</v>
+      </c>
+      <c r="J39" s="2">
+        <v>14.117647058823529</v>
+      </c>
+      <c r="K39" s="2">
+        <v>14.633416458852865</v>
+      </c>
+      <c r="L39" s="2">
+        <v>10.172839506172838</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="13"/>
+        <v>113.23584905660377</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="6"/>
+        <v>165</v>
+      </c>
+      <c r="Q39">
+        <f>D39*4</f>
+        <v>54</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="8"/>
+        <v>75.06</v>
+      </c>
+      <c r="S39">
+        <f>SUM(P39:R39)</f>
+        <v>294.06</v>
+      </c>
+      <c r="T39">
+        <f>P39+R39</f>
+        <v>240.06</v>
+      </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="10" t="s">
@@ -3906,7 +4056,7 @@
         <v>150</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" ref="Q41" si="13">D41*4</f>
+        <f t="shared" ref="Q41" si="15">D41*4</f>
         <v>42</v>
       </c>
       <c r="R41" s="10">
@@ -3918,7 +4068,7 @@
         <v>300</v>
       </c>
       <c r="T41" s="10">
-        <f t="shared" ref="T41" si="14">P41+R41</f>
+        <f t="shared" ref="T41" si="16">P41+R41</f>
         <v>258</v>
       </c>
     </row>
@@ -3976,7 +4126,7 @@
         <v>105.6</v>
       </c>
       <c r="Q42" s="10">
-        <f t="shared" ref="Q42" si="15">D42*4</f>
+        <f t="shared" ref="Q42" si="17">D42*4</f>
         <v>76</v>
       </c>
       <c r="R42" s="10">
@@ -3988,7 +4138,7 @@
         <v>300.39999999999998</v>
       </c>
       <c r="T42" s="10">
-        <f t="shared" ref="T42" si="16">P42+R42</f>
+        <f t="shared" ref="T42" si="18">P42+R42</f>
         <v>224.39999999999998</v>
       </c>
     </row>
@@ -4046,7 +4196,7 @@
         <v>122.4</v>
       </c>
       <c r="Q43" s="10">
-        <f t="shared" ref="Q43" si="17">D43*4</f>
+        <f t="shared" ref="Q43" si="19">D43*4</f>
         <v>45.6</v>
       </c>
       <c r="R43" s="10">
@@ -4058,7 +4208,7 @@
         <v>292.2</v>
       </c>
       <c r="T43" s="10">
-        <f t="shared" ref="T43" si="18">P43+R43</f>
+        <f t="shared" ref="T43" si="20">P43+R43</f>
         <v>246.60000000000002</v>
       </c>
     </row>
@@ -4163,10 +4313,10 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5666,6 +5816,44 @@
       </c>
       <c r="M38" s="8"/>
     </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="D39">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E39">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="F39">
+        <v>7.0666666666666673E-3</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0.80020000000000002</v>
+      </c>
+      <c r="I39">
+        <v>5.6956521739130433E-2</v>
+      </c>
+      <c r="J39">
+        <v>4.7058823529411764E-2</v>
+      </c>
+      <c r="K39">
+        <v>4.8778054862842882E-2</v>
+      </c>
+      <c r="L39">
+        <v>3.3909465020576131E-2</v>
+      </c>
+    </row>
     <row r="41" spans="1:13">
       <c r="A41" s="10" t="s">
         <v>91</v>
@@ -5828,13 +6016,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB05657-7C92-4504-9151-023EF147012E}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7335,161 +7523,200 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="8" t="s">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="D39">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E39">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="F39">
+        <v>7.0666666666666673E-3</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0.80020000000000002</v>
+      </c>
+      <c r="I39">
+        <v>5.6956521739130433E-2</v>
+      </c>
+      <c r="J39">
+        <v>4.7058823529411764E-2</v>
+      </c>
+      <c r="K39">
+        <v>4.8778054862842882E-2</v>
+      </c>
+      <c r="L39">
+        <v>3.3909465020576131E-2</v>
+      </c>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="8">
-        <v>1</v>
-      </c>
-      <c r="C39" s="8">
+      <c r="B40" s="8">
+        <v>1</v>
+      </c>
+      <c r="C40" s="8">
         <v>0.15620000000000001</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E40" s="8">
         <v>2.23E-2</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F40" s="8">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="G39" s="8">
-        <v>1</v>
-      </c>
-      <c r="H39" s="8">
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="8">
         <v>0.82550000000000001</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I40" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J40" s="8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K40" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L40" s="8">
         <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0.1875</v>
-      </c>
-      <c r="D40">
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="E40">
-        <v>0.06</v>
-      </c>
-      <c r="F40">
-        <v>8.6E-3</v>
-      </c>
-      <c r="G40">
-        <v>1.5</v>
-      </c>
-      <c r="H40">
-        <v>1.29</v>
-      </c>
-      <c r="I40">
-        <v>9.3260869565217383E-2</v>
-      </c>
-      <c r="J40">
-        <v>4.0920716112531973E-2</v>
-      </c>
-      <c r="K40">
-        <v>5.2369077306733167E-2</v>
-      </c>
-      <c r="L40">
-        <v>3.9506172839506172E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>0.13200000000000001</v>
+        <v>0.1875</v>
       </c>
       <c r="D41">
-        <v>9.5000000000000001E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="E41">
-        <v>6.6000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F41">
-        <v>1.5162162162162162E-2</v>
+        <v>8.6E-3</v>
       </c>
       <c r="G41">
         <v>1.5</v>
       </c>
       <c r="H41">
-        <v>1.1220000000000001</v>
+        <v>1.29</v>
       </c>
       <c r="I41">
-        <v>0.11434782608695652</v>
+        <v>9.3260869565217383E-2</v>
       </c>
       <c r="J41">
-        <v>5.9335038363171354E-2</v>
+        <v>4.0920716112531973E-2</v>
       </c>
       <c r="K41">
-        <v>5.0374064837905241E-2</v>
+        <v>5.2369077306733167E-2</v>
       </c>
       <c r="L41">
-        <v>2.6337448559670781E-2</v>
+        <v>3.9506172839506172E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>0.153</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="D42">
-        <v>5.7000000000000002E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E42">
-        <v>6.9000000000000006E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F42">
-        <v>8.8071428571428571E-3</v>
+        <v>1.5162162162162162E-2</v>
       </c>
       <c r="G42">
         <v>1.5</v>
       </c>
       <c r="H42">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="I42">
+        <v>0.11434782608695652</v>
+      </c>
+      <c r="J42">
+        <v>5.9335038363171354E-2</v>
+      </c>
+      <c r="K42">
+        <v>5.0374064837905241E-2</v>
+      </c>
+      <c r="L42">
+        <v>2.6337448559670781E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0.153</v>
+      </c>
+      <c r="D43">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E43">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F43">
+        <v>8.8071428571428571E-3</v>
+      </c>
+      <c r="G43">
+        <v>1.5</v>
+      </c>
+      <c r="H43">
         <v>1.2329999999999999</v>
       </c>
-      <c r="I42">
+      <c r="I43">
         <v>1.9565217391304349E-2</v>
       </c>
-      <c r="J42">
+      <c r="J43">
         <v>1.0230179028132993E-2</v>
       </c>
-      <c r="K42">
+      <c r="K43">
         <v>1.8703241895261843E-2</v>
       </c>
-      <c r="L42">
+      <c r="L43">
         <v>1.3168724279835391E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L39" xr:uid="{9EB05657-7C92-4504-9151-023EF147012E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L39">
-      <sortCondition ref="A2:A39" customList="総合,蛋白,糖質,電解,補液,経口"/>
+  <autoFilter ref="A1:L40" xr:uid="{9EB05657-7C92-4504-9151-023EF147012E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L40">
+      <sortCondition ref="A2:A40" customList="総合,蛋白,糖質,電解,補液,経口"/>
     </sortState>
   </autoFilter>
   <dataConsolidate/>

--- a/TPNelem.xlsx
+++ b/TPNelem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKIE01-2022\Python_script\DIサイト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19DC2BF-91E4-4210-859D-332FCA6BFFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A37446-B278-4E65-A135-2CBAC023EAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31470" yWindow="-30" windowWidth="22050" windowHeight="14760" activeTab="2" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
+    <workbookView xWindow="32790" yWindow="420" windowWidth="23775" windowHeight="15180" activeTab="2" xr2:uid="{A8DE39AC-9138-4E02-B691-3AB8BC6B522D}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1016,44 +1019,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>補液｜YDソリタ-T1号輸液</t>
-    <rPh sb="11" eb="12">
+    <t>補液｜ソリタ-T4号輸液</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キドパレン輸液</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合｜キドパレン輸液</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イノソリッド配合経腸用半固形剤</t>
+  </si>
+  <si>
+    <t>イノソリッド配合経腸用半固形剤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経口｜イノソリッド配合経腸用半固形剤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補液｜ソリタ-T1号輸液</t>
+    <rPh sb="9" eb="10">
       <t>ゴウ</t>
     </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="10" eb="12">
       <t>ユエキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>補液｜YDソリタ-T3号G輸液</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>補液｜YDソリタ-T3号輸液</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>補液｜ソリタ-T4号輸液</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キドパレン輸液</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>総合｜キドパレン輸液</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イノソリッド配合経腸用半固形剤</t>
-  </si>
-  <si>
-    <t>イノソリッド配合経腸用半固形剤</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経口｜イノソリッド配合経腸用半固形剤</t>
+    <t>補液｜ソリタ-T3号G輸液</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補液｜ソリタ-T3号輸液</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1755,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:S39" si="4">SUM(P3:R3)</f>
+        <f t="shared" ref="S3:S38" si="4">SUM(P3:R3)</f>
         <v>1230</v>
       </c>
       <c r="T3" s="2">
@@ -2182,7 +2185,7 @@
         <v>20.8</v>
       </c>
       <c r="Q10">
-        <f t="shared" ref="Q10:Q39" si="7">D10*4</f>
+        <f t="shared" ref="Q10:Q38" si="7">D10*4</f>
         <v>0</v>
       </c>
       <c r="R10">
@@ -2194,7 +2197,7 @@
         <v>20.8</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" ref="T10:T35" si="9">P10+R10</f>
+        <f t="shared" ref="T10:T31" si="9">P10+R10</f>
         <v>20.8</v>
       </c>
     </row>
@@ -3673,7 +3676,7 @@
         <v>213.3</v>
       </c>
       <c r="T34">
-        <f t="shared" ref="T34:T39" si="14">P34+R34</f>
+        <f t="shared" ref="T34:T38" si="14">P34+R34</f>
         <v>159.30000000000001</v>
       </c>
     </row>
@@ -3939,7 +3942,7 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2">
         <v>300</v>
@@ -4236,7 +4239,7 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B45" s="10">
         <v>1050</v>
@@ -5818,7 +5821,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5970,7 +5973,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -6019,10 +6022,10 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6159,7 +6162,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7134,7 +7137,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
@@ -7173,7 +7176,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B30" s="8">
         <v>1</v>
@@ -7212,7 +7215,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B31" s="8">
         <v>1</v>
@@ -7251,7 +7254,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
@@ -7524,7 +7527,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B39">
         <v>1</v>
